--- a/resources/excelfiles/AppilloTestControl2One.xlsx
+++ b/resources/excelfiles/AppilloTestControl2One.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>TestName</t>
   </si>
@@ -29,70 +29,73 @@
     <t>count</t>
   </si>
   <si>
+    <t>loginWithCredentialsChrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to login chrome </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>totalMoneySpentCalculationChrome</t>
+  </si>
+  <si>
+    <t>to calculate money chrome</t>
+  </si>
+  <si>
+    <t>justToTestListenerMethod1Chrome</t>
+  </si>
+  <si>
+    <t>to test listener count control on method chrome</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>justToTestListenerMethod2Chrome</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>justToTestRetryListenerOnFailMethod3Chrome</t>
+  </si>
+  <si>
+    <t>loginWithCredentialsEdge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to login edge </t>
+  </si>
+  <si>
+    <t>totalMoneySpentCalculationEdge</t>
+  </si>
+  <si>
+    <t>to calculate money edge</t>
+  </si>
+  <si>
+    <t>justToTestListenerMethod1Edge</t>
+  </si>
+  <si>
+    <t>to test listener count control on method edge</t>
+  </si>
+  <si>
     <t>justToTestListenerMethod2Edge</t>
   </si>
   <si>
-    <t>to test listener count control on method edge</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>justToTestRetryListenerOnFailMethod3Edge</t>
-  </si>
-  <si>
-    <t>loginWithCredentialsChrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to login chrome </t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>totalMoneySpentCalculationChrome</t>
-  </si>
-  <si>
-    <t>to calculate money chrome</t>
-  </si>
-  <si>
-    <t>justToTestListenerMethod1Chrome</t>
-  </si>
-  <si>
-    <t>to test listener count control on method chrome</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>justToTestRetryListenerOnFailMethod3Chrome</t>
-  </si>
-  <si>
-    <t>loginWithCredentialsEdge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to login edge </t>
-  </si>
-  <si>
-    <t>totalMoneySpentCalculationEdge</t>
-  </si>
-  <si>
-    <t>to calculate money edge</t>
-  </si>
-  <si>
-    <t>justToTestListenerMethod1Edge</t>
   </si>
 </sst>
 </file>
@@ -244,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -280,7 +283,7 @@
       <c r="B2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D2" t="s" s="0">
@@ -295,13 +298,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>9</v>
@@ -309,33 +312,33 @@
     </row>
     <row r="4" ht="50.0" customHeight="true">
       <c r="A4" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>14</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="50.0" customHeight="true">
       <c r="A5" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s" s="2">
         <v>13</v>
       </c>
+      <c r="C5" t="s" s="3">
+        <v>17</v>
+      </c>
       <c r="D5" t="s" s="0">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>9</v>
@@ -343,53 +346,53 @@
     </row>
     <row r="6" ht="50.0" customHeight="true">
       <c r="A6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="D6" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>19</v>
-      </c>
       <c r="E6" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="50.0" customHeight="true">
+      <c r="A7" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="50.0" customHeight="true">
+      <c r="A8" t="s" s="0">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" ht="50.0" customHeight="true">
-      <c r="A7" t="s" s="0">
+      <c r="B8" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="C8" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" ht="50.0" customHeight="true">
-      <c r="A8" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s" s="1">
-        <v>4</v>
+      <c r="E8" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="50.0" customHeight="true">
@@ -400,10 +403,10 @@
         <v>23</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>9</v>
@@ -417,13 +420,13 @@
         <v>25</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="50.0" customHeight="true">
@@ -431,16 +434,33 @@
         <v>26</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>17</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>20</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="50.0" customHeight="true">
+      <c r="A12" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
